--- a/data/source/CBTN-X01_mapping.xlsx
+++ b/data/source/CBTN-X01_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkenkre/Desktop/pedpancancer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ochapman/projects/pedpancan_ecdna/data/source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0415B0AE-F658-D547-A511-520E6E5785BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB9E66E-563F-5940-9F12-8FC2A17362A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="540" windowWidth="20220" windowHeight="13880"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CBTN-X01_mapping" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="207">
   <si>
     <t>source_ontology</t>
   </si>
@@ -646,7 +646,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1488,11 +1488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1702,14 +1702,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1808,6 +1808,9 @@
       <c r="B28" t="s">
         <v>42</v>
       </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1849,6 +1852,9 @@
       <c r="B32" t="s">
         <v>47</v>
       </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1905,198 +1911,201 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C38" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="48" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="55" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2320,15 +2329,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="76" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C76" t="s">
-        <v>45</v>
+      <c r="C76" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2449,7 +2458,7 @@
         <v>108</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2474,12 +2483,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,7 +2524,7 @@
         <v>113</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2570,14 +2582,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>15</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="99" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2775,9 +2787,6 @@
       <c r="B117" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
@@ -2797,7 +2806,7 @@
       <c r="B119" t="s">
         <v>138</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2808,7 +2817,7 @@
       <c r="B120" t="s">
         <v>139</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2819,8 +2828,8 @@
       <c r="B121" t="s">
         <v>140</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>45</v>
+      <c r="C121" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2951,9 +2960,6 @@
       <c r="B133" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="134" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
@@ -3006,7 +3012,7 @@
       <c r="B138" t="s">
         <v>158</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3065,25 +3071,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B144" s="2" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144" t="s">
         <v>164</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B145" s="2" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
         <v>165</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3098,14 +3104,14 @@
         <v>54</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>15</v>
-      </c>
-      <c r="B147" t="s">
+    <row r="147" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3120,14 +3126,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>15</v>
-      </c>
-      <c r="B149" t="s">
+    <row r="149" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3208,14 +3214,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>15</v>
-      </c>
-      <c r="B157" t="s">
+    <row r="157" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B157" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3326,7 +3332,7 @@
         <v>185</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3359,14 +3365,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="171" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B171" s="2" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" t="s">
         <v>189</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" t="s">
         <v>7</v>
       </c>
     </row>
